--- a/04云天/SAP与MES集成测试场景.xlsx
+++ b/04云天/SAP与MES集成测试场景.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="407">
   <si>
     <t>物料组</t>
   </si>
@@ -1196,10 +1196,16 @@
     <t>数量3</t>
   </si>
   <si>
+    <t>A020200005</t>
+  </si>
+  <si>
+    <t>500000000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>500000000021</t>
-  </si>
-  <si>
-    <t>500000000022</t>
   </si>
   <si>
     <t>工艺路线</t>
@@ -1243,10 +1249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1276,7 +1282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,6 +1296,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1297,22 +1327,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,7 +1358,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,10 +1379,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1364,56 +1418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,7 +1452,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,25 +1566,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,13 +1608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,127 +1626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,11 +1698,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,6 +1733,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,43 +1790,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1795,10 +1801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1807,133 +1813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1980,6 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4595,10 +4602,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4644,249 +4651,266 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2">
+        <v>1012</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>252</v>
       </c>
-      <c r="B2">
-        <v>1012</v>
-      </c>
-      <c r="C2">
+      <c r="B13">
+        <v>1012</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" t="s">
         <v>272</v>
       </c>
-      <c r="F2">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G13" t="s">
         <v>276</v>
       </c>
-      <c r="H2">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>256</v>
       </c>
-      <c r="B3">
-        <v>1012</v>
-      </c>
-      <c r="C3">
+      <c r="B14">
+        <v>1012</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" t="s">
         <v>278</v>
       </c>
-      <c r="F3">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G14" t="s">
         <v>280</v>
       </c>
-      <c r="H3">
+      <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>258</v>
       </c>
-      <c r="B4">
-        <v>1012</v>
-      </c>
-      <c r="C4">
+      <c r="B15">
+        <v>1012</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D15" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E15" t="s">
         <v>282</v>
       </c>
-      <c r="F4">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G15" t="s">
         <v>284</v>
       </c>
-      <c r="H4">
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>260</v>
       </c>
-      <c r="B5">
-        <v>1012</v>
-      </c>
-      <c r="C5">
+      <c r="B16">
+        <v>1012</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" t="s">
         <v>286</v>
       </c>
-      <c r="F5">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G16" t="s">
         <v>287</v>
       </c>
-      <c r="H5">
+      <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>262</v>
       </c>
-      <c r="B6">
-        <v>1012</v>
-      </c>
-      <c r="C6">
+      <c r="B17">
+        <v>1012</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D17" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E17" t="s">
         <v>289</v>
       </c>
-      <c r="F6">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G17" t="s">
         <v>291</v>
       </c>
-      <c r="H6">
+      <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>264</v>
       </c>
-      <c r="B7">
-        <v>1012</v>
-      </c>
-      <c r="C7">
+      <c r="B18">
+        <v>1012</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E18" t="s">
         <v>293</v>
       </c>
-      <c r="F7">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G18" t="s">
         <v>295</v>
       </c>
-      <c r="H7">
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>266</v>
       </c>
-      <c r="B8">
-        <v>1012</v>
-      </c>
-      <c r="C8">
+      <c r="B19">
+        <v>1012</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E19" t="s">
         <v>297</v>
       </c>
-      <c r="F8">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G19" t="s">
         <v>299</v>
       </c>
-      <c r="H8">
+      <c r="H19">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>268</v>
       </c>
-      <c r="B9">
-        <v>1012</v>
-      </c>
-      <c r="C9">
+      <c r="B20">
+        <v>1012</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E20" t="s">
         <v>303</v>
       </c>
-      <c r="F9">
+      <c r="F20">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G20" t="s">
         <v>313</v>
       </c>
-      <c r="H9">
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I20" t="s">
         <v>321</v>
       </c>
-      <c r="J9">
+      <c r="J20">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>270</v>
       </c>
-      <c r="B10">
-        <v>1012</v>
-      </c>
-      <c r="C10">
+      <c r="B21">
+        <v>1012</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E21" t="s">
         <v>313</v>
       </c>
-      <c r="F10">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G21" t="s">
         <v>319</v>
       </c>
-      <c r="H10">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I21" t="s">
         <v>335</v>
       </c>
-      <c r="J10">
+      <c r="J21">
         <v>3</v>
       </c>
     </row>
@@ -4914,28 +4938,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s">
         <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4955,13 +4979,13 @@
         <v>10120001</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G2">
         <v>10120002</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4981,13 +5005,13 @@
         <v>10120003</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G3">
         <v>10120004</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5007,13 +5031,13 @@
         <v>10120005</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G4">
         <v>10120001</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5033,13 +5057,13 @@
         <v>10120002</v>
       </c>
       <c r="F5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G5">
         <v>10120004</v>
       </c>
       <c r="H5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5059,13 +5083,13 @@
         <v>10120001</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G6">
         <v>10120002</v>
       </c>
       <c r="H6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5085,13 +5109,13 @@
         <v>10120001</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G7">
         <v>10120002</v>
       </c>
       <c r="H7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5111,13 +5135,13 @@
         <v>10120003</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G8">
         <v>10120004</v>
       </c>
       <c r="H8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5137,13 +5161,13 @@
         <v>10120005</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G9">
         <v>10120001</v>
       </c>
       <c r="H9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5163,13 +5187,13 @@
         <v>10120005</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G10">
         <v>10120003</v>
       </c>
       <c r="H10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5201,13 +5225,13 @@
         <v>382</v>
       </c>
       <c r="B1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5215,7 +5239,7 @@
         <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C2">
         <v>10</v>
